--- a/output/RPS_19211696000123.xlsx
+++ b/output/RPS_19211696000123.xlsx
@@ -1296,10 +1296,10 @@
         <v>44165</v>
       </c>
       <c r="B83">
-        <v>1.4692509</v>
+        <v>1.4765277</v>
       </c>
       <c r="C83">
-        <v>-0.01021622433492708</v>
+        <v>-0.007299364578488454</v>
       </c>
     </row>
   </sheetData>

--- a/output/RPS_19211696000123.xlsx
+++ b/output/RPS_19211696000123.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>RPS TOTAL RETURN D30 FUNDO DE INVESTIMENTO EM COTAS DE FUNDOS DE INVESTIMENTO MULTIMERCADO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,920 +383,674 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C83"/>
+  <dimension ref="A1:B83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>41698</v>
       </c>
       <c r="B2">
-        <v>0.002180400000000082</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>41729</v>
       </c>
       <c r="B3">
-        <v>0.01289819999999997</v>
-      </c>
-      <c r="C3">
         <v>0.01069448175198784</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>41759</v>
       </c>
       <c r="B4">
-        <v>0.05020099999999994</v>
-      </c>
-      <c r="C4">
         <v>0.0368277878270491</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>41790</v>
       </c>
       <c r="B5">
-        <v>0.05876619999999999</v>
-      </c>
-      <c r="C5">
         <v>0.008155772085534085</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>41820</v>
       </c>
       <c r="B6">
-        <v>0.07276090000000002</v>
-      </c>
-      <c r="C6">
         <v>0.01321793234427027</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>41851</v>
       </c>
       <c r="B7">
-        <v>0.07478760000000007</v>
-      </c>
-      <c r="C7">
         <v>0.001889237387380671</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>41882</v>
       </c>
       <c r="B8">
-        <v>0.127003</v>
-      </c>
-      <c r="C8">
         <v>0.04858206402827858</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>41912</v>
       </c>
       <c r="B9">
-        <v>0.1160926</v>
-      </c>
-      <c r="C9">
         <v>-0.009680897033991887</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>41943</v>
       </c>
       <c r="B10">
-        <v>0.1271157999999999</v>
-      </c>
-      <c r="C10">
         <v>0.009876599844851564</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>41973</v>
       </c>
       <c r="B11">
-        <v>0.1618200999999999</v>
-      </c>
-      <c r="C11">
         <v>0.03079035889657478</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>42004</v>
       </c>
       <c r="B12">
-        <v>0.2095233999999999</v>
-      </c>
-      <c r="C12">
         <v>0.04105911061445755</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>42035</v>
       </c>
       <c r="B13">
-        <v>0.1734682999999999</v>
-      </c>
-      <c r="C13">
         <v>-0.02980934473859709</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>42063</v>
       </c>
       <c r="B14">
-        <v>0.1734239</v>
-      </c>
-      <c r="C14">
         <v>-3.783655681188769e-05</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>42094</v>
       </c>
       <c r="B15">
-        <v>0.2108866</v>
-      </c>
-      <c r="C15">
         <v>0.03192597321394253</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>42124</v>
       </c>
       <c r="B16">
-        <v>0.2863146999999999</v>
-      </c>
-      <c r="C16">
         <v>0.0622916299511449</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>42155</v>
       </c>
       <c r="B17">
-        <v>0.3120845000000001</v>
-      </c>
-      <c r="C17">
         <v>0.02003382220540595</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>42185</v>
       </c>
       <c r="B18">
-        <v>0.3623879000000001</v>
-      </c>
-      <c r="C18">
         <v>0.03833853688539124</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>42216</v>
       </c>
       <c r="B19">
-        <v>0.3793325999999999</v>
-      </c>
-      <c r="C19">
         <v>0.01243750036241509</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>42247</v>
       </c>
       <c r="B20">
-        <v>0.3799956</v>
-      </c>
-      <c r="C20">
         <v>0.0004806672444339632</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>42277</v>
       </c>
       <c r="B21">
-        <v>0.3965936000000001</v>
-      </c>
-      <c r="C21">
         <v>0.01202757458067261</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>42308</v>
       </c>
       <c r="B22">
-        <v>0.3592624</v>
-      </c>
-      <c r="C22">
         <v>-0.02673018120661597</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>42338</v>
       </c>
       <c r="B23">
-        <v>0.3295863999999999</v>
-      </c>
-      <c r="C23">
         <v>-0.02183242911743899</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>42369</v>
       </c>
       <c r="B24">
-        <v>0.3414611999999999</v>
-      </c>
-      <c r="C24">
         <v>0.008931198453895117</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>42400</v>
       </c>
       <c r="B25">
-        <v>0.2896331000000001</v>
-      </c>
-      <c r="C25">
         <v>-0.0386355565110641</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>42429</v>
       </c>
       <c r="B26">
-        <v>0.3233998</v>
-      </c>
-      <c r="C26">
         <v>0.02618318341860171</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>42460</v>
       </c>
       <c r="B27">
-        <v>0.3418553</v>
-      </c>
-      <c r="C27">
         <v>0.01394552122495396</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>42490</v>
       </c>
       <c r="B28">
-        <v>0.3648492000000001</v>
-      </c>
-      <c r="C28">
         <v>0.01713590131514198</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>42521</v>
       </c>
       <c r="B29">
-        <v>0.3391842</v>
-      </c>
-      <c r="C29">
         <v>-0.01880427522688954</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>42551</v>
       </c>
       <c r="B30">
-        <v>0.3846067</v>
-      </c>
-      <c r="C30">
         <v>0.03391803756346579</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>42582</v>
       </c>
       <c r="B31">
-        <v>0.5055407999999999</v>
-      </c>
-      <c r="C31">
         <v>0.08734184227188835</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>42613</v>
       </c>
       <c r="B32">
-        <v>0.5699590999999999</v>
-      </c>
-      <c r="C32">
         <v>0.04278748207952909</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>42643</v>
       </c>
       <c r="B33">
-        <v>0.5837603</v>
-      </c>
-      <c r="C33">
         <v>0.00879080225720541</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>42674</v>
       </c>
       <c r="B34">
-        <v>0.6673834999999999</v>
-      </c>
-      <c r="C34">
         <v>0.05280041430511928</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>42704</v>
       </c>
       <c r="B35">
-        <v>0.663502</v>
-      </c>
-      <c r="C35">
         <v>-0.002327898770738579</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:2">
       <c r="A36" s="2">
         <v>42735</v>
       </c>
       <c r="B36">
-        <v>0.7160705999999999</v>
-      </c>
-      <c r="C36">
         <v>0.03160116429075521</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="2">
         <v>42766</v>
       </c>
       <c r="B37">
-        <v>0.7812929</v>
-      </c>
-      <c r="C37">
         <v>0.03800676965155159</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="2">
         <v>42794</v>
       </c>
       <c r="B38">
-        <v>0.8354115</v>
-      </c>
-      <c r="C38">
         <v>0.03038164021200562</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:2">
       <c r="A39" s="2">
         <v>42825</v>
       </c>
       <c r="B39">
-        <v>0.8372081</v>
-      </c>
-      <c r="C39">
         <v>0.0009788540607924556</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:2">
       <c r="A40" s="2">
         <v>42855</v>
       </c>
       <c r="B40">
-        <v>0.841847</v>
-      </c>
-      <c r="C40">
         <v>0.002524972538494596</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:2">
       <c r="A41" s="2">
         <v>42886</v>
       </c>
       <c r="B41">
-        <v>0.8043521</v>
-      </c>
-      <c r="C41">
         <v>-0.02035722836913167</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:2">
       <c r="A42" s="2">
         <v>42916</v>
       </c>
       <c r="B42">
-        <v>0.8127039</v>
-      </c>
-      <c r="C42">
         <v>0.004628697469856391</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:2">
       <c r="A43" s="2">
         <v>42947</v>
       </c>
       <c r="B43">
-        <v>0.8436374</v>
-      </c>
-      <c r="C43">
         <v>0.01706483888515931</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:2">
       <c r="A44" s="2">
         <v>42978</v>
       </c>
       <c r="B44">
-        <v>0.8748351000000001</v>
-      </c>
-      <c r="C44">
         <v>0.0169218198762946</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:2">
       <c r="A45" s="2">
         <v>43008</v>
       </c>
       <c r="B45">
-        <v>0.9430449000000001</v>
-      </c>
-      <c r="C45">
         <v>0.03638175965448909</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:2">
       <c r="A46" s="2">
         <v>43039</v>
       </c>
       <c r="B46">
-        <v>0.9854843</v>
-      </c>
-      <c r="C46">
         <v>0.02184169804825409</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:2">
       <c r="A47" s="2">
         <v>43069</v>
       </c>
       <c r="B47">
-        <v>0.9487947999999999</v>
-      </c>
-      <c r="C47">
         <v>-0.01847886684372169</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:2">
       <c r="A48" s="2">
         <v>43100</v>
       </c>
       <c r="B48">
-        <v>0.9780598</v>
-      </c>
-      <c r="C48">
         <v>0.01501697356745835</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49" s="2">
         <v>43131</v>
       </c>
       <c r="B49">
-        <v>1.0432194</v>
-      </c>
-      <c r="C49">
         <v>0.03294116790604606</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:2">
       <c r="A50" s="2">
         <v>43159</v>
       </c>
       <c r="B50">
-        <v>1.0871587</v>
-      </c>
-      <c r="C50">
         <v>0.02150493481023119</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:2">
       <c r="A51" s="2">
         <v>43190</v>
       </c>
       <c r="B51">
-        <v>1.1069013</v>
-      </c>
-      <c r="C51">
         <v>0.009459079465303777</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:2">
       <c r="A52" s="2">
         <v>43220</v>
       </c>
       <c r="B52">
-        <v>1.1597052</v>
-      </c>
-      <c r="C52">
         <v>0.02506235104605992</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:2">
       <c r="A53" s="2">
         <v>43251</v>
       </c>
       <c r="B53">
-        <v>1.1777263</v>
-      </c>
-      <c r="C53">
         <v>0.008344240686182447</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:2">
       <c r="A54" s="2">
         <v>43281</v>
       </c>
       <c r="B54">
-        <v>1.2084437</v>
-      </c>
-      <c r="C54">
         <v>0.0141052619881572</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:2">
       <c r="A55" s="2">
         <v>43312</v>
       </c>
       <c r="B55">
-        <v>1.1854133</v>
-      </c>
-      <c r="C55">
         <v>-0.01042833919651209</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:2">
       <c r="A56" s="2">
         <v>43343</v>
       </c>
       <c r="B56">
-        <v>1.1796524</v>
-      </c>
-      <c r="C56">
         <v>-0.002636068884544596</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:2">
       <c r="A57" s="2">
         <v>43373</v>
       </c>
       <c r="B57">
-        <v>1.194346</v>
-      </c>
-      <c r="C57">
         <v>0.00674125837679429</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:2">
       <c r="A58" s="2">
         <v>43404</v>
       </c>
       <c r="B58">
-        <v>1.2642522</v>
-      </c>
-      <c r="C58">
         <v>0.03185741902143069</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:2">
       <c r="A59" s="2">
         <v>43434</v>
       </c>
       <c r="B59">
-        <v>1.2865401</v>
-      </c>
-      <c r="C59">
         <v>0.009843382287538338</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:2">
       <c r="A60" s="2">
         <v>43465</v>
       </c>
       <c r="B60">
-        <v>1.3030825</v>
-      </c>
-      <c r="C60">
         <v>0.007234686153109626</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:2">
       <c r="A61" s="2">
         <v>43496</v>
       </c>
       <c r="B61">
-        <v>1.367324</v>
-      </c>
-      <c r="C61">
         <v>0.02789370333021068</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:2">
       <c r="A62" s="2">
         <v>43524</v>
       </c>
       <c r="B62">
-        <v>1.3353771</v>
-      </c>
-      <c r="C62">
         <v>-0.01349494196823076</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:2">
       <c r="A63" s="2">
         <v>43555</v>
       </c>
       <c r="B63">
-        <v>1.284896</v>
-      </c>
-      <c r="C63">
         <v>-0.0216158238427534</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:2">
       <c r="A64" s="2">
         <v>43585</v>
       </c>
       <c r="B64">
-        <v>1.2877486</v>
-      </c>
-      <c r="C64">
         <v>0.00124845944848273</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:2">
       <c r="A65" s="2">
         <v>43616</v>
       </c>
       <c r="B65">
-        <v>1.3008702</v>
-      </c>
-      <c r="C65">
         <v>0.005735595248533842</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:2">
       <c r="A66" s="2">
         <v>43646</v>
       </c>
       <c r="B66">
-        <v>1.3609863</v>
-      </c>
-      <c r="C66">
         <v>0.02612754948106155</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:2">
       <c r="A67" s="2">
         <v>43677</v>
       </c>
       <c r="B67">
-        <v>1.4162294</v>
-      </c>
-      <c r="C67">
         <v>0.02339831450949137</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:2">
       <c r="A68" s="2">
         <v>43708</v>
       </c>
       <c r="B68">
-        <v>1.336997</v>
-      </c>
-      <c r="C68">
         <v>-0.03279175396177203</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:2">
       <c r="A69" s="2">
         <v>43738</v>
       </c>
       <c r="B69">
-        <v>1.2910581</v>
-      </c>
-      <c r="C69">
         <v>-0.01965723533235186</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:2">
       <c r="A70" s="2">
         <v>43769</v>
       </c>
       <c r="B70">
-        <v>1.3605056</v>
-      </c>
-      <c r="C70">
         <v>0.0303124132906103</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:2">
       <c r="A71" s="2">
         <v>43799</v>
       </c>
       <c r="B71">
-        <v>1.3740777</v>
-      </c>
-      <c r="C71">
         <v>0.005749658039362338</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:2">
       <c r="A72" s="2">
         <v>43830</v>
       </c>
       <c r="B72">
-        <v>1.5456185</v>
-      </c>
-      <c r="C72">
         <v>0.07225576483869922</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:2">
       <c r="A73" s="2">
         <v>43861</v>
       </c>
       <c r="B73">
-        <v>1.6013312</v>
-      </c>
-      <c r="C73">
         <v>0.0218857224678406</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:2">
       <c r="A74" s="2">
         <v>43890</v>
       </c>
       <c r="B74">
-        <v>1.4370693</v>
-      </c>
-      <c r="C74">
         <v>-0.06314532344055235</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:2">
       <c r="A75" s="2">
         <v>43921</v>
       </c>
       <c r="B75">
-        <v>1.2563679</v>
-      </c>
-      <c r="C75">
         <v>-0.07414700927872675</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:2">
       <c r="A76" s="2">
         <v>43951</v>
       </c>
       <c r="B76">
-        <v>1.3295186</v>
-      </c>
-      <c r="C76">
         <v>0.03241966879603297</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:2">
       <c r="A77" s="2">
         <v>43982</v>
       </c>
       <c r="B77">
-        <v>1.2946584</v>
-      </c>
-      <c r="C77">
         <v>-0.01496455104501004</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:2">
       <c r="A78" s="2">
         <v>44012</v>
       </c>
       <c r="B78">
-        <v>1.4171002</v>
-      </c>
-      <c r="C78">
         <v>0.05335948915097788</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:2">
       <c r="A79" s="2">
         <v>44043</v>
       </c>
       <c r="B79">
-        <v>1.5182181</v>
-      </c>
-      <c r="C79">
         <v>0.04183438485504221</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:2">
       <c r="A80" s="2">
         <v>44074</v>
       </c>
       <c r="B80">
-        <v>1.5609797</v>
-      </c>
-      <c r="C80">
         <v>0.01698089613445308</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:2">
       <c r="A81" s="2">
         <v>44104</v>
       </c>
       <c r="B81">
-        <v>1.4496061</v>
-      </c>
-      <c r="C81">
         <v>-0.04348866959000097</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:2">
       <c r="A82" s="2">
         <v>44135</v>
       </c>
       <c r="B82">
-        <v>1.4947377</v>
-      </c>
-      <c r="C82">
         <v>0.01842402335624493</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:2">
       <c r="A83" s="2">
         <v>44165</v>
       </c>
       <c r="B83">
-        <v>1.4765277</v>
-      </c>
-      <c r="C83">
-        <v>-0.007299364578488454</v>
+        <v>-0.01947964309033356</v>
       </c>
     </row>
   </sheetData>
